--- a/решения/Wheel/wheel.xlsx
+++ b/решения/Wheel/wheel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reynikovanton/Desktop/APP/development/Locity/решения/Wheel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E85A485-943D-6049-B66D-7E94A7695694}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A683D8D-F956-0048-8FCA-897EAFBBF722}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13940" yWindow="2740" windowWidth="29320" windowHeight="23960" xr2:uid="{2D5C6F0C-BF6E-1B43-B662-86FAADCFD52C}"/>
   </bookViews>
@@ -25,25 +25,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>число</t>
   </si>
   <si>
     <t>раз</t>
   </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -67,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1275,15 +1298,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA8683F-C40B-494C-80F0-69B04D2E8A91}">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1302,8 +1328,11 @@
         <f t="array" ref="D2:D7">FREQUENCY(A2:A201,C2:C6)</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1313,8 +1342,11 @@
       <c r="D3">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1324,8 +1356,11 @@
       <c r="D4">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1335,8 +1370,11 @@
       <c r="D5">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1346,8 +1384,11 @@
       <c r="D6">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1355,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1364,42 +1405,42 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
